--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3500.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3500.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.982604083825463</v>
+        <v>3.219905376434326</v>
       </c>
       <c r="B1">
-        <v>2.271557069253342</v>
+        <v>3.103070259094238</v>
       </c>
       <c r="C1">
-        <v>6.698040098919146</v>
+        <v>2.740068912506104</v>
       </c>
       <c r="D1">
-        <v>2.926769630012163</v>
+        <v>2.46838116645813</v>
       </c>
       <c r="E1">
-        <v>1.580947357445674</v>
+        <v>1.727951884269714</v>
       </c>
     </row>
   </sheetData>
